--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
@@ -58,34 +55,37 @@
     <t>fucking</t>
   </si>
   <si>
+    <t>disturbing</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>bad</t>
@@ -109,18 +109,18 @@
     <t>best</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -133,7 +133,7 @@
     <t>wow</t>
   </si>
   <si>
-    <t>many</t>
+    <t>worth</t>
   </si>
   <si>
     <t>social</t>
@@ -142,19 +142,25 @@
     <t>new</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>netflix</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>documentary</t>
   </si>
   <si>
     <t>watch</t>
@@ -524,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +541,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
@@ -643,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9545454545454546</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>29</v>
@@ -693,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>30</v>
@@ -743,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9038461538461539</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8245614035087719</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -811,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K7">
-        <v>0.6933333333333334</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8">
-        <v>0.6896551724137931</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +923,13 @@
         <v>34</v>
       </c>
       <c r="K9">
-        <v>0.6842105263157895</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7058823529411765</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6571428571428571</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>36</v>
@@ -1043,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K12">
-        <v>0.4545454545454545</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1099,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.65</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1111,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K13">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,13 +1149,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6153846153846154</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1161,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>0.2926829268292683</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1193,13 +1199,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6014492753623188</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C15">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1211,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K15">
-        <v>0.2586520947176685</v>
+        <v>0.2577413479052824</v>
       </c>
       <c r="L15">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M15">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1235,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1243,37 +1249,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>16</v>
-      </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>0.2372881355932203</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1285,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1293,13 +1299,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1311,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>0.1789473684210526</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1335,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1343,13 +1349,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5106382978723404</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1361,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>0.1529411764705882</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1385,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1423,13 @@
         <v>44</v>
       </c>
       <c r="K19">
-        <v>0.0537037037037037</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1435,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>511</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,13 +1473,13 @@
         <v>45</v>
       </c>
       <c r="K20">
-        <v>0.05271084337349398</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1485,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>629</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1493,37 +1499,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.04391891891891892</v>
+        <v>0.05743243243243244</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="F21">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>0.04593639575971731</v>
+        <v>0.06325301204819277</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1535,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>270</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1543,13 +1549,13 @@
         <v>47</v>
       </c>
       <c r="K22">
-        <v>0.03409090909090909</v>
+        <v>0.05653710247349823</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1561,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>595</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1569,13 +1575,13 @@
         <v>48</v>
       </c>
       <c r="K23">
-        <v>0.029449423815621</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1587,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>758</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1595,24 +1601,76 @@
         <v>49</v>
       </c>
       <c r="K24">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="L24">
+        <v>24</v>
+      </c>
+      <c r="M24">
+        <v>24</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25">
+        <v>0.03329065300896287</v>
+      </c>
+      <c r="L25">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26">
         <v>0.02649769585253456</v>
       </c>
-      <c r="L24">
+      <c r="L26">
         <v>46</v>
       </c>
-      <c r="M24">
+      <c r="M26">
         <v>46</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>1690</v>
       </c>
     </row>
